--- a/bom_single.xlsx
+++ b/bom_single.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\pcb_designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A232068E-A57A-4C18-AFB1-B88F49316B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255F3C52-DB95-474D-B6F2-48BF955D05F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2F528AF-FE74-4AE0-8388-09176BCB912F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
   <si>
     <t>Part</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>Additional Headers</t>
+  </si>
+  <si>
+    <t>DRV870ERGET</t>
   </si>
 </sst>
 </file>
@@ -851,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633406DB-4B78-4D66-933D-88F980172E2E}">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1209,7 @@
         <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
